--- a/FullStack-UI Internship.xlsx
+++ b/FullStack-UI Internship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6703dab8483d8600/Desktop/HCAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{64C53BE4-12E1-214E-885A-9CEDA2384391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D5D4B1D-BDA8-416D-8CC0-F8AFBA241B4A}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{64C53BE4-12E1-214E-885A-9CEDA2384391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4886AF7C-756E-4756-A325-98BE7ED1E16F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98D9C75F-496B-49BA-95B9-B4A44035F949}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>Week</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>https://www.w3schools.com/html/</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/default.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/js/js_htmldom.asp</t>
   </si>
 </sst>
 </file>
@@ -771,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1133,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD469F04-BB4E-443C-A985-7CE279731B5C}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="121" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1160,7 +1166,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1174,7 +1180,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1190,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1200,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1204,11 +1210,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="48" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1216,7 +1222,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="5"/>
       <c r="C7" s="30"/>
       <c r="D7" s="2" t="s">
@@ -1224,7 +1230,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="29.4" thickBot="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -1237,8 +1243,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A9" s="49"/>
       <c r="B9" s="26" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1256,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="26" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1266,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="26" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1278,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="26" t="s">
         <v>15</v>
       </c>
@@ -1280,25 +1286,29 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="51" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1">
-      <c r="A14" s="55"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>81</v>
+      </c>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1316,7 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="43" t="s">
         <v>20</v>
       </c>
@@ -1314,15 +1324,17 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="29.4" thickBot="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="57" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -1332,7 +1344,7 @@
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="53"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
@@ -1340,7 +1352,7 @@
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1348,7 +1360,7 @@
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="15" t="s">
         <v>26</v>
       </c>
@@ -1356,7 +1368,7 @@
       <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1366,7 +1378,7 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1374,7 +1386,7 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="17" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1394,7 @@
       <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="17" t="s">
         <v>30</v>
       </c>
@@ -1390,7 +1402,7 @@
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="57" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -1400,7 +1412,7 @@
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="20" t="s">
         <v>32</v>
       </c>
@@ -1408,7 +1420,7 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="20" t="s">
         <v>33</v>
       </c>
@@ -1416,7 +1428,7 @@
       <c r="D28" s="16"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="20" t="s">
         <v>34</v>
       </c>
@@ -1424,13 +1436,13 @@
       <c r="D29" s="16"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1">
-      <c r="A30" s="49"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="20"/>
       <c r="C30" s="35"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="51" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1440,7 +1452,7 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="55"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
@@ -1448,7 +1460,7 @@
       <c r="D32" s="14"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
@@ -1456,7 +1468,7 @@
       <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="58"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="47" t="s">
         <v>20</v>
       </c>
@@ -1464,7 +1476,7 @@
       <c r="D34" s="46"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1484,7 @@
       <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="58"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +1492,7 @@
       <c r="D36" s="46"/>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1">
-      <c r="A37" s="59"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
@@ -1488,7 +1500,7 @@
       <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="49" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -1498,7 +1510,7 @@
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="53"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
@@ -1506,7 +1518,7 @@
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="54"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="15" t="s">
         <v>44</v>
       </c>
@@ -1514,7 +1526,7 @@
       <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1">
-      <c r="A41" s="49"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="10" t="s">
         <v>45</v>
       </c>
@@ -1522,7 +1534,7 @@
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="56" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -1532,7 +1544,7 @@
       <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="51"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
@@ -1540,7 +1552,7 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="17" t="s">
         <v>49</v>
       </c>
@@ -1548,7 +1560,7 @@
       <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1">
-      <c r="A45" s="52"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="5" t="s">
         <v>50</v>
       </c>
@@ -1556,7 +1568,7 @@
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="57" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -1566,7 +1578,7 @@
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="60"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="8" t="s">
         <v>53</v>
       </c>
@@ -1574,7 +1586,7 @@
       <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="60"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="8" t="s">
         <v>54</v>
       </c>
@@ -1582,7 +1594,7 @@
       <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1">
-      <c r="A49" s="54"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="15" t="s">
         <v>55</v>
       </c>
@@ -1590,7 +1602,7 @@
       <c r="D49" s="16"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1600,7 +1612,7 @@
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="51"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
@@ -1608,7 +1620,7 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1">
-      <c r="A52" s="57"/>
+      <c r="A52" s="58"/>
       <c r="B52" s="5" t="s">
         <v>59</v>
       </c>
@@ -1616,7 +1628,7 @@
       <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1">
-      <c r="A53" s="52"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="5" t="s">
         <v>60</v>
       </c>
@@ -1624,7 +1636,7 @@
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -1634,7 +1646,7 @@
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="15" thickBot="1">
-      <c r="A55" s="60"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="22" t="s">
         <v>63</v>
       </c>
@@ -1642,7 +1654,7 @@
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1">
-      <c r="A56" s="54"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="7" t="s">
         <v>64</v>
       </c>
@@ -1650,7 +1662,7 @@
       <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="62" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1660,7 +1672,7 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1">
-      <c r="A58" s="59"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="5" t="s">
         <v>67</v>
       </c>
@@ -1670,7 +1682,7 @@
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="49" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="26" t="s">
@@ -1682,7 +1694,7 @@
       <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" ht="29.4" thickBot="1">
-      <c r="A60" s="49"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="10" t="s">
         <v>72</v>
       </c>
@@ -1717,25 +1729,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24125d79-ea52-439f-a375-65daac2b3a6a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cf3ba8b7-fe3f-417b-b898-053442d6350e" xsi:nil="true"/>
-    <MediaLengthInSeconds xmlns="24125d79-ea52-439f-a375-65daac2b3a6a" xsi:nil="true"/>
-    <SharedWithUsers xmlns="cf3ba8b7-fe3f-417b-b898-053442d6350e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F563A5A79D68D4A8DA27484E7979B81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ebdebf791576642c2c5e9a29edc76246">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24125d79-ea52-439f-a375-65daac2b3a6a" xmlns:ns3="cf3ba8b7-fe3f-417b-b898-053442d6350e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85a02d8a3cf3864849335356a01ff1a4" ns2:_="" ns3:_="">
     <xsd:import namespace="24125d79-ea52-439f-a375-65daac2b3a6a"/>
@@ -1964,6 +1957,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24125d79-ea52-439f-a375-65daac2b3a6a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cf3ba8b7-fe3f-417b-b898-053442d6350e" xsi:nil="true"/>
+    <MediaLengthInSeconds xmlns="24125d79-ea52-439f-a375-65daac2b3a6a" xsi:nil="true"/>
+    <SharedWithUsers xmlns="cf3ba8b7-fe3f-417b-b898-053442d6350e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1974,17 +1986,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1C8D93-F854-4117-8FE5-7F9918703004}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="24125d79-ea52-439f-a375-65daac2b3a6a"/>
-    <ds:schemaRef ds:uri="cf3ba8b7-fe3f-417b-b898-053442d6350e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292F92FF-B53B-4779-A130-469EDA24D4E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2003,6 +2004,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1C8D93-F854-4117-8FE5-7F9918703004}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="24125d79-ea52-439f-a375-65daac2b3a6a"/>
+    <ds:schemaRef ds:uri="cf3ba8b7-fe3f-417b-b898-053442d6350e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44956AEF-19C1-4A97-830B-7A43DC187369}">
   <ds:schemaRefs>

--- a/FullStack-UI Internship.xlsx
+++ b/FullStack-UI Internship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6703dab8483d8600/Desktop/HCAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{64C53BE4-12E1-214E-885A-9CEDA2384391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4886AF7C-756E-4756-A325-98BE7ED1E16F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{709BF510-F578-4B16-954C-6C0935291822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F7781B9-B6BA-4E3F-A62E-C3F2B8ACB9FB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98D9C75F-496B-49BA-95B9-B4A44035F949}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>Week</t>
   </si>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD469F04-BB4E-443C-A985-7CE279731B5C}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="121" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="121" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1295,7 +1295,9 @@
       <c r="C13" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1">
       <c r="A14" s="56"/>
@@ -1305,7 +1307,9 @@
       <c r="C14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1">
       <c r="A15" s="52"/>
@@ -1313,7 +1317,9 @@
         <v>19</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1">
       <c r="A16" s="52"/>
@@ -1329,9 +1335,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="57" t="s">

--- a/FullStack-UI Internship.xlsx
+++ b/FullStack-UI Internship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6703dab8483d8600/Desktop/HCAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{709BF510-F578-4B16-954C-6C0935291822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F7781B9-B6BA-4E3F-A62E-C3F2B8ACB9FB}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{709BF510-F578-4B16-954C-6C0935291822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7936F49-A38F-42B3-AE56-BABB9C79459B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98D9C75F-496B-49BA-95B9-B4A44035F949}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>Week</t>
   </si>
@@ -838,6 +838,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD469F04-BB4E-443C-A985-7CE279731B5C}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="121" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="121" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1317,9 +1321,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1">
       <c r="A16" s="52"/>
@@ -1733,6 +1735,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24125d79-ea52-439f-a375-65daac2b3a6a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cf3ba8b7-fe3f-417b-b898-053442d6350e" xsi:nil="true"/>
+    <MediaLengthInSeconds xmlns="24125d79-ea52-439f-a375-65daac2b3a6a" xsi:nil="true"/>
+    <SharedWithUsers xmlns="cf3ba8b7-fe3f-417b-b898-053442d6350e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F563A5A79D68D4A8DA27484E7979B81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ebdebf791576642c2c5e9a29edc76246">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24125d79-ea52-439f-a375-65daac2b3a6a" xmlns:ns3="cf3ba8b7-fe3f-417b-b898-053442d6350e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85a02d8a3cf3864849335356a01ff1a4" ns2:_="" ns3:_="">
     <xsd:import namespace="24125d79-ea52-439f-a375-65daac2b3a6a"/>
@@ -1961,25 +1982,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24125d79-ea52-439f-a375-65daac2b3a6a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cf3ba8b7-fe3f-417b-b898-053442d6350e" xsi:nil="true"/>
-    <MediaLengthInSeconds xmlns="24125d79-ea52-439f-a375-65daac2b3a6a" xsi:nil="true"/>
-    <SharedWithUsers xmlns="cf3ba8b7-fe3f-417b-b898-053442d6350e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1990,6 +1992,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1C8D93-F854-4117-8FE5-7F9918703004}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="24125d79-ea52-439f-a375-65daac2b3a6a"/>
+    <ds:schemaRef ds:uri="cf3ba8b7-fe3f-417b-b898-053442d6350e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292F92FF-B53B-4779-A130-469EDA24D4E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2008,17 +2021,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1C8D93-F854-4117-8FE5-7F9918703004}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="24125d79-ea52-439f-a375-65daac2b3a6a"/>
-    <ds:schemaRef ds:uri="cf3ba8b7-fe3f-417b-b898-053442d6350e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44956AEF-19C1-4A97-830B-7A43DC187369}">
   <ds:schemaRefs>
